--- a/medicine/Pharmacie/Masque_anti-poussière_FFP1/Masque_anti-poussière_FFP1.xlsx
+++ b/medicine/Pharmacie/Masque_anti-poussière_FFP1/Masque_anti-poussière_FFP1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Masque_anti-poussi%C3%A8re_FFP1</t>
+          <t>Masque_anti-poussière_FFP1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un masque anti-poussière FFP1 (filtering facepiece 1) est un masque en papier flexible maintenu au-dessus du nez et de la bouche par des sangles en caoutchouc ou élastiques pour protéger les voies respiratoires  contre les poussières nuisibles mais non toxiques : il ne protège pas contre les dangers toxiques en suspension dans l'air[1],[2].   
-Il est défini par la norme européenne EN 149[3] qui en compte deux autres, le masque FFP2 et le masque FFP3. Aux États-Unis, le masque FFP1 n'est pas soumis aux approbations requises par les masques de protection tels que le masque N95 et les masques chirurgicaux[4]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un masque anti-poussière FFP1 (filtering facepiece 1) est un masque en papier flexible maintenu au-dessus du nez et de la bouche par des sangles en caoutchouc ou élastiques pour protéger les voies respiratoires  contre les poussières nuisibles mais non toxiques : il ne protège pas contre les dangers toxiques en suspension dans l'air,.   
+Il est défini par la norme européenne EN 149 qui en compte deux autres, le masque FFP2 et le masque FFP3. Aux États-Unis, le masque FFP1 n'est pas soumis aux approbations requises par les masques de protection tels que le masque N95 et les masques chirurgicaux. 
 Le masque anti-poussière est utilisé dans des environnements contenant des poussières rencontrées pendant les activités de construction ou de nettoyage, telles que les poussières de cloisons sèches, de briques, de bois, de fibre de verre, de silice (provenant de la production de céramique ou de verre ) ou de balayage.  
 Ce masque anti-poussière peut également être porté dans des environnements contenant des allergènes tels que le pollen des arbres et des graminées.  
 Enfin, il est également utilisé pour empêcher le porteur d'inhaler de la poussière ou du sable lors d'une tempête de poussière ou d'une tempête de sable. 
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Masque_anti-poussi%C3%A8re_FFP1</t>
+          <t>Masque_anti-poussière_FFP1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un masque anti-poussière est porté de la même manière qu'un masque respiratoire filtrant ou un masque chirurgical, mais il est dangereux de les confondre car ils protègent chacun contre des dangers spécifiques de l'air.  
 L'utilisation d'un mauvais masque pour un travail peut présenter un danger important et peut-être mortel car de nombreux masques anti-poussière avec des niveaux de protection très variés peuvent sembler similaires, voire être des masques qui ne protègent pas du tout contre la poussière.  
